--- a/datasets/sales/SampleData.xlsx
+++ b/datasets/sales/SampleData.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdal\OneDrive\Documents\ContexturesSampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSP\PythonProjects\python-data-analysis\datasets\sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E70720A-763A-460D-9657-3B9DD8EFFB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72059E9-AFBA-44D3-8ECC-211B0C94C3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24030" yWindow="-3540" windowWidth="22845" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="8" r:id="rId1"/>
-    <sheet name="SalesOrders" sheetId="1" r:id="rId2"/>
-    <sheet name="SampleNumbers" sheetId="9" r:id="rId3"/>
-    <sheet name="MyLinks" sheetId="10" r:id="rId4"/>
+    <sheet name="SalesOrders" sheetId="1" r:id="rId1"/>
+    <sheet name="MyLinks" sheetId="10" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
   <si>
     <t>Region</t>
   </si>
@@ -167,42 +165,6 @@
     <t>Pivot table tutorials and tips, with comments and questions</t>
   </si>
   <si>
-    <t>Online Instruction Page</t>
-  </si>
-  <si>
-    <t>Related tutorials</t>
-  </si>
-  <si>
-    <t>Get weekly Excel tips, tutorials, videos, and news</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>•</t>
-  </si>
-  <si>
-    <t>Named Excel Tables</t>
-  </si>
-  <si>
-    <t>Sample Data for Excel</t>
-  </si>
-  <si>
-    <t>Data Entry Popup Kit</t>
-  </si>
-  <si>
-    <t>Data Entry Tips</t>
-  </si>
-  <si>
-    <t>Sample Data -- Formatted Numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- How to paste formatted numbers and keep the formatting</t>
-  </si>
-  <si>
-    <t>Related Contextures Products</t>
-  </si>
-  <si>
     <t>Pivot Power Premium Add-in</t>
   </si>
   <si>
@@ -222,36 +184,6 @@
   </si>
   <si>
     <t>Other Excel tools and training, recommended by Debra</t>
-  </si>
-  <si>
-    <t>Click on the Text Box to select it</t>
-  </si>
-  <si>
-    <t>Then, select the numbers and copy them</t>
-  </si>
-  <si>
-    <t>Paste the numbers in the cells below</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- Some numbers will change to dates,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- Leading zeroes will be lost.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This example shows how Excel changes number formatting. </t>
-  </si>
-  <si>
-    <t>For more information:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SalesOrders sheet has sales data for a fictional company, and each row represents an order. </t>
-  </si>
-  <si>
-    <t>The Total column could be changed to a formula, to multiply the Units and Cost columns.</t>
-  </si>
-  <si>
-    <t>More Excel Sample Files</t>
   </si>
 </sst>
 </file>
@@ -262,7 +194,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -301,42 +233,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -354,46 +250,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -406,9 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,46 +307,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Ctx_Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{EB666C6D-407C-40C7-A692-53700D36DD5D}"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{EB666C6D-407C-40C7-A692-53700D36DD5D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{1A867160-CFF8-4CFB-9486-A3FC92514B8F}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{1A867160-CFF8-4CFB-9486-A3FC92514B8F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,149 +338,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1478281</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="129540" y="68580"/>
-          <a:ext cx="2171701" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69100D8A-A9F6-485E-978A-7CA250F7E622}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="514351" y="1638300"/>
-          <a:ext cx="952499" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3/4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>02345</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1-3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,1175 +676,1036 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet30"/>
-  <dimension ref="B1:C27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:C41">
-    <sortCondition ref="B25"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" display="http://www.contextures.com/xlSampleData01.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C9" r:id="rId3" display="http://www.contextures.com/xlExcelTable01.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" location="numberdate" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C15" r:id="rId6" display="Data Validation Multi-Select Premium Kit" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{542F5451-4623-475D-B6BF-6362136F0245}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="11.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>43471</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="11">
         <v>95</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="12">
         <v>1.99</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="13">
         <v>189.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>43488</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="11">
         <v>50</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="13">
         <v>999.49999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>43505</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="11">
         <v>36</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="12">
         <v>4.99</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="13">
         <v>179.64000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>43522</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="11">
         <v>27</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="13">
         <v>539.7299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>43539</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>56</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="12">
         <v>2.99</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="13">
         <v>167.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>43556</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>60</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="12">
         <v>4.99</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="13">
         <v>299.40000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>43573</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <v>75</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="12">
         <v>1.99</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="13">
         <v>149.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>43590</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="11">
         <v>90</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="12">
         <v>4.99</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="13">
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>43607</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="11">
         <v>32</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="12">
         <v>1.99</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <v>63.68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>43624</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="11">
         <v>60</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="12">
         <v>8.99</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>43641</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <v>90</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="12">
         <v>4.99</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="13">
         <v>449.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>43658</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>29</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="12">
         <v>1.99</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="13">
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>43675</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="11">
         <v>81</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <v>1619.1899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>43692</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="11">
         <v>35</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="12">
         <v>4.99</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="13">
         <v>174.65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>43709</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="12">
         <v>125</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="13">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>43726</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <v>16</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="12">
         <v>15.99</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="13">
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>43743</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="17">
-        <v>28</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="E18" s="11">
+        <v>28</v>
+      </c>
+      <c r="F18" s="12">
         <v>8.99</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="13">
         <v>251.72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>43760</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="11">
         <v>64</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="12">
         <v>8.99</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="13">
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>43777</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="11">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="13">
         <v>299.84999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>43794</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="11">
         <v>96</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="12">
         <v>4.99</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="13">
         <v>479.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>43811</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="11">
         <v>67</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="12">
         <v>1.29</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="13">
         <v>86.43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>43828</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="11">
         <v>74</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="12">
         <v>15.99</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="13">
         <v>1183.26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>43845</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="11">
         <v>46</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="12">
         <v>8.99</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="13">
         <v>413.54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>43862</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="11">
         <v>87</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="12">
         <v>15</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="13">
         <v>1305</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>43879</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="11">
         <v>4</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="12">
         <v>4.99</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="13">
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>43897</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="11">
         <v>7</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="13">
         <v>139.92999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>43914</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="11">
         <v>50</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="12">
         <v>4.99</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="13">
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>43931</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="11">
         <v>66</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="12">
         <v>1.99</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="13">
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>43948</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="11">
         <v>96</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="12">
         <v>4.99</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="13">
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>43965</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="11">
         <v>53</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="12">
         <v>1.29</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="13">
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>43982</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="11">
         <v>80</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="12">
         <v>8.99</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="13">
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>43999</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="11">
         <v>5</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="12">
         <v>125</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="13">
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>44016</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="11">
         <v>62</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="12">
         <v>4.99</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="13">
         <v>309.38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>44033</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="B35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="11">
         <v>55</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="12">
         <v>12.49</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="13">
         <v>686.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>44050</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="B36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="11">
         <v>42</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="12">
         <v>23.95</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="13">
         <v>1005.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>44067</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="12">
         <v>275</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="13">
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>44084</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="16" t="s">
+      <c r="B38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="11">
         <v>7</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="12">
         <v>1.29</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="13">
         <v>9.0300000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>44101</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="11">
         <v>76</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="12">
         <v>1.99</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="13">
         <v>151.24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>44118</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="11">
         <v>57</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="13">
         <v>1139.4299999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>44135</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="11">
         <v>14</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="12">
         <v>1.29</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="13">
         <v>18.060000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>44152</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="B42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="11">
         <v>11</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="12">
         <v>4.99</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="13">
         <v>54.89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>44169</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="B43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="11">
         <v>94</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="12">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="13">
         <v>1879.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>44186</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="B44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="17">
-        <v>28</v>
-      </c>
-      <c r="F44" s="18">
+      <c r="E44" s="11">
+        <v>28</v>
+      </c>
+      <c r="F44" s="12">
         <v>4.99</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="13">
         <v>139.72</v>
       </c>
     </row>
@@ -2157,216 +1722,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H8" s="24"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H9" s="24"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H10" s="24"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" location="numberdate" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D51106-B812-43DE-BA84-0529260D7BA8}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="29" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="64" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="29"/>
+    <col min="1" max="1" width="3" style="15" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="64" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="29" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-    </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+    <row r="9" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-    </row>
-    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>62</v>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
